--- a/data/trans_dic/P1435-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1435-Clase-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04576098610724165</v>
+        <v>0.04874296586223039</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02569592837988179</v>
+        <v>0.02373953295907485</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01810399999553967</v>
+        <v>0.01857515820622476</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06674719481119919</v>
+        <v>0.06256712899889602</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1027874509909728</v>
+        <v>0.1089403223905602</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07577447816519518</v>
+        <v>0.07368579197778029</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05711907766405851</v>
+        <v>0.05866858773765225</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1153878283390512</v>
+        <v>0.1158739712133148</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>0.03699414656862632</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.07753563589663891</v>
+        <v>0.07753563589663892</v>
       </c>
     </row>
     <row r="8">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1049337300842351</v>
+        <v>0.1032902820780496</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02948586954436759</v>
+        <v>0.03113551917576356</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02111890167709621</v>
+        <v>0.02111321065658022</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05584416262815417</v>
+        <v>0.05581889561651996</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1721374986603095</v>
+        <v>0.1777519266982277</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07567443398379242</v>
+        <v>0.07577904406322392</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06017990565706634</v>
+        <v>0.06030215474893961</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1047480710645111</v>
+        <v>0.1084401534645497</v>
       </c>
     </row>
     <row r="10">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05464801049920578</v>
+        <v>0.05208594230394711</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01560176428183937</v>
+        <v>0.01544503295103294</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005887902178791296</v>
+        <v>0.005688922036827648</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02603115055823846</v>
+        <v>0.02288000046920412</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1475661208707868</v>
+        <v>0.1440114954081139</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06917849561372556</v>
+        <v>0.06620306444097594</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05709288575854401</v>
+        <v>0.05943372131847943</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08443381597048871</v>
+        <v>0.08808596429931517</v>
       </c>
     </row>
     <row r="13">
@@ -793,7 +793,7 @@
         <v>0.01150499480149744</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.0783272513590394</v>
+        <v>0.07832725135903941</v>
       </c>
     </row>
     <row r="14">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07650300614627319</v>
+        <v>0.07599003446842752</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03395174630965944</v>
+        <v>0.03606669394053282</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.005798494974582918</v>
+        <v>0.00577171924892569</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06320142860403019</v>
+        <v>0.06196287958806881</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1204165456989297</v>
+        <v>0.1206566078628025</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06784979036328198</v>
+        <v>0.06914727330194567</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02153919169229421</v>
+        <v>0.02068769187803397</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09993110381636951</v>
+        <v>0.09640953181377752</v>
       </c>
     </row>
     <row r="16">
@@ -857,7 +857,7 @@
         <v>0.02122046994474789</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.0509555338996865</v>
+        <v>0.05095553389968651</v>
       </c>
     </row>
     <row r="17">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03166918086127574</v>
+        <v>0.03339230290878661</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0173725475221679</v>
+        <v>0.01819068779976191</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01247396544802428</v>
+        <v>0.01248183430980613</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03906750307982031</v>
+        <v>0.03769632787081083</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07037315187964516</v>
+        <v>0.07007420950248784</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04245401272610349</v>
+        <v>0.04246423145495849</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03371488961980438</v>
+        <v>0.03447500622768274</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06613909721301202</v>
+        <v>0.06483346818364948</v>
       </c>
     </row>
     <row r="19">
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04782926886963297</v>
+        <v>0.04776684977798272</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02518664329325146</v>
+        <v>0.02439947481298885</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.00533839980584802</v>
+        <v>0.00555598893677968</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01847259459790134</v>
+        <v>0.0176749717720019</v>
       </c>
     </row>
     <row r="21">
@@ -952,16 +952,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07399199428071412</v>
+        <v>0.07422009629903098</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04700705750314885</v>
+        <v>0.04722672909281008</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01854757020443227</v>
+        <v>0.01894021507324721</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05461188620499512</v>
+        <v>0.05349334867206004</v>
       </c>
     </row>
     <row r="22">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06821960465425844</v>
+        <v>0.0685776755756065</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03275700547974533</v>
+        <v>0.03254595088430804</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01476406819520021</v>
+        <v>0.01473941943571943</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05272521568595091</v>
+        <v>0.05344819550736772</v>
       </c>
     </row>
     <row r="24">
@@ -1016,16 +1016,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08609748609637909</v>
+        <v>0.08637026500764422</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04615030128942249</v>
+        <v>0.04554167207205014</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02383543227784315</v>
+        <v>0.02351152287377464</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06904569081857388</v>
+        <v>0.06890118524512712</v>
       </c>
     </row>
     <row r="25">
@@ -1176,16 +1176,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>14034</v>
+        <v>14948</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8080</v>
+        <v>7465</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6283</v>
+        <v>6447</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>32497</v>
+        <v>30462</v>
       </c>
     </row>
     <row r="7">
@@ -1196,16 +1196,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31523</v>
+        <v>33410</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23828</v>
+        <v>23171</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19823</v>
+        <v>20361</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>56178</v>
+        <v>56415</v>
       </c>
     </row>
     <row r="8">
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>39021</v>
+        <v>38410</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9967</v>
+        <v>10524</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7862</v>
+        <v>7860</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>23516</v>
+        <v>23505</v>
       </c>
     </row>
     <row r="11">
@@ -1280,16 +1280,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>64012</v>
+        <v>66100</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>25579</v>
+        <v>25614</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>22403</v>
+        <v>22449</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>44109</v>
+        <v>45663</v>
       </c>
     </row>
     <row r="12">
@@ -1344,16 +1344,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9169</v>
+        <v>8739</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4058</v>
+        <v>4018</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>978</v>
+        <v>945</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4881</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="15">
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24759</v>
+        <v>24163</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17995</v>
+        <v>17221</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9484</v>
+        <v>9873</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>15831</v>
+        <v>16516</v>
       </c>
     </row>
     <row r="16">
@@ -1428,16 +1428,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>54645</v>
+        <v>54279</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>25964</v>
+        <v>27581</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4789</v>
+        <v>4767</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>54177</v>
+        <v>53115</v>
       </c>
     </row>
     <row r="19">
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>86012</v>
+        <v>86183</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>51886</v>
+        <v>52878</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17789</v>
+        <v>17085</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>85661</v>
+        <v>82643</v>
       </c>
     </row>
     <row r="20">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>18012</v>
+        <v>18992</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>13207</v>
+        <v>13829</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>9209</v>
+        <v>9215</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>32372</v>
+        <v>31236</v>
       </c>
     </row>
     <row r="23">
@@ -1532,16 +1532,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>40025</v>
+        <v>39855</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>32275</v>
+        <v>32283</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>24890</v>
+        <v>25451</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>54804</v>
+        <v>53722</v>
       </c>
     </row>
     <row r="24">
@@ -1596,16 +1596,16 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>59727</v>
+        <v>59649</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>27941</v>
+        <v>27068</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5776</v>
+        <v>6012</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>15583</v>
+        <v>14911</v>
       </c>
     </row>
     <row r="27">
@@ -1616,16 +1616,16 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>92398</v>
+        <v>92683</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>52147</v>
+        <v>52391</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>20069</v>
+        <v>20494</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>46070</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="28">
@@ -1680,16 +1680,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>230454</v>
+        <v>231664</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>116186</v>
+        <v>115438</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>52141</v>
+        <v>52054</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>191122</v>
+        <v>193743</v>
       </c>
     </row>
     <row r="31">
@@ -1700,16 +1700,16 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>290848</v>
+        <v>291769</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>163691</v>
+        <v>161532</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>84177</v>
+        <v>83033</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>250282</v>
+        <v>249758</v>
       </c>
     </row>
     <row r="32">
